--- a/x-ray.xlsx
+++ b/x-ray.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C188"/>
+  <dimension ref="A1:C152"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,7 +459,7 @@
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
-          <t>經營從事醫務化驗師專業業務的公司的名單  (2022 年度)</t>
+          <t>經營從事醫務化驗師專業業務的公司的名單  (2023 年度)</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr">
         <is>
-          <t>公司名稱</t>
+          <t>Name of Company</t>
         </is>
       </c>
     </row>
@@ -485,7 +485,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Acecgt Diagnostic Limited</t>
+          <t>ACGT DNA-Lab Limited</t>
         </is>
       </c>
     </row>
@@ -493,14 +493,10 @@
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Acecgt NutriGene Limited</t>
+          <t>基因化驗所有限公司</t>
         </is>
       </c>
     </row>
@@ -510,12 +506,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>ACGT DNA-Lab Limited</t>
+          <t>ACT Genomics (Hong Kong) Limited</t>
         </is>
       </c>
     </row>
@@ -523,10 +519,14 @@
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr"/>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>基因化驗所有限公司</t>
+          <t>Advance Clinical Laboratory</t>
         </is>
       </c>
     </row>
@@ -541,7 +541,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>ACME Medical Laboratory Limited</t>
+          <t>APAC Diagnostics Limited</t>
         </is>
       </c>
     </row>
@@ -549,10 +549,14 @@
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr"/>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>高端醫學化驗所有限公司</t>
+          <t>Apex DNA Diagnostics Laboratory Medical Group Limited</t>
         </is>
       </c>
     </row>
@@ -562,12 +566,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Action X Ray &amp; Medical Diagnostic Centre</t>
+          <t>Apex Reproductive Medical Limited</t>
         </is>
       </c>
     </row>
@@ -577,12 +581,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Advance Clinical Laboratory</t>
+          <t>Asia Molecular Diagnostic Laboratory Ltd</t>
         </is>
       </c>
     </row>
@@ -592,12 +596,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Apex DNA Diagnostics Laboratory Medical Group Limited</t>
+          <t>Asia Molecular Diagnostic Ltd</t>
         </is>
       </c>
     </row>
@@ -605,10 +609,14 @@
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr"/>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>弘高生殖醫療有限公司</t>
+          <t>Asian Advanced Medical Testing Center</t>
         </is>
       </c>
     </row>
@@ -618,12 +626,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Apex DNA Diagnostics Laboratory Medical Group Limited</t>
+          <t>Asian Medical Diagnostic Centre Limited</t>
         </is>
       </c>
     </row>
@@ -631,10 +639,14 @@
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr"/>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>弘高醫療集團基因化驗所有限公司</t>
+          <t>Ausmed Immuno Diagnostics Services (AIDS) Limited</t>
         </is>
       </c>
     </row>
@@ -644,12 +656,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Apex DNA Diagnostics Laboratory Medical Group Limited</t>
+          <t>BIO Lab Service</t>
         </is>
       </c>
     </row>
@@ -657,10 +669,14 @@
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr"/>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>弘高生殖醫學檢測有限公司</t>
+          <t>Catagene Limited</t>
         </is>
       </c>
     </row>
@@ -670,12 +686,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Asia Molecular Diagnostic Laboratory Ltd</t>
+          <t>Cellomics International Limited</t>
         </is>
       </c>
     </row>
@@ -685,12 +701,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Asia Molecular Diagnostic Ltd</t>
+          <t>Celvita Cell Technology Company Limited</t>
         </is>
       </c>
     </row>
@@ -700,12 +716,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Asian Advanced Medical Testing Center</t>
+          <t>Central Diagnostic Clinic</t>
         </is>
       </c>
     </row>
@@ -715,12 +731,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Asian Medical Diagnostic Centre Limited</t>
+          <t>Chan &amp; Hou Medical Laboratories Ltd.</t>
         </is>
       </c>
     </row>
@@ -730,12 +746,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Avalon Genomics (HK) Limited</t>
+          <t>China Inspection Medical Laboratories Limited</t>
         </is>
       </c>
     </row>
@@ -743,14 +759,10 @@
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
+      <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr">
         <is>
-          <t>A-Veitch Bioscience Limited</t>
+          <t>中檢醫學檢驗有限公司</t>
         </is>
       </c>
     </row>
@@ -760,12 +772,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Berlin Optical Co. Ltd</t>
+          <t>Codex Genetics Limited</t>
         </is>
       </c>
     </row>
@@ -775,12 +787,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>20</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>BGI Health (HK) Company Limited</t>
+          <t>Codex Health Check Limited</t>
         </is>
       </c>
     </row>
@@ -790,12 +802,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>BGI Tech Solutions (HK) Co., Ltd</t>
+          <t>Cognitact Limited</t>
         </is>
       </c>
     </row>
@@ -805,12 +817,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>BIOLAB Service</t>
+          <t>Cordlife (Hong Kong) Ltd</t>
         </is>
       </c>
     </row>
@@ -820,12 +832,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>23</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Biolabs Rehab Clinic</t>
+          <t>CytoLab Pap Test Screening Centre Ltd</t>
         </is>
       </c>
     </row>
@@ -835,12 +847,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>24</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>BioMed Laboratory Company Limited</t>
+          <t>DeNovo Service Limited</t>
         </is>
       </c>
     </row>
@@ -850,12 +862,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>25</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Bright Growth Nedical Laboratory Limited</t>
+          <t>DiagCor Bioscience Incorporation Limited</t>
         </is>
       </c>
     </row>
@@ -866,7 +878,7 @@
       <c r="B32" t="inlineStr"/>
       <c r="C32" t="inlineStr">
         <is>
-          <t>高怡醫學化驗有限公司</t>
+          <t>達雅高生物科技有限公司</t>
         </is>
       </c>
     </row>
@@ -876,12 +888,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>26</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Carelink Bioscience Limited</t>
+          <t>Diagnostix Medical Centre (CIGB) O/B Diagnostix Medical Centre Limited</t>
         </is>
       </c>
     </row>
@@ -891,12 +903,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>27</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Catagene Limited</t>
+          <t>DNA Checkup Limited</t>
         </is>
       </c>
     </row>
@@ -904,14 +916,10 @@
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
+      <c r="B35" t="inlineStr"/>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Cellomics International Limited</t>
+          <t>香港基因檢測有限公司</t>
         </is>
       </c>
     </row>
@@ -921,12 +929,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>28</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Central Diagnostic Clinic</t>
+          <t>DNA Checkup Medical Laboratory and Diagnostics Limited</t>
         </is>
       </c>
     </row>
@@ -936,12 +944,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>29</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Chan &amp; Hou Medical Laboratories Ltd</t>
+          <t>Dynamic X-Ray &amp; Medical Laboratory Limited</t>
         </is>
       </c>
     </row>
@@ -949,14 +957,10 @@
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>28</t>
-        </is>
-      </c>
+      <c r="B38" t="inlineStr"/>
       <c r="C38" t="inlineStr">
         <is>
-          <t>China Inspection Medical Laboratories Limited</t>
+          <t>信心 X 光醫學化驗所有限公司</t>
         </is>
       </c>
     </row>
@@ -964,10 +968,14 @@
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr"/>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>中檢醫學檢測有限公司</t>
+          <t>E-inhealth Testing Laboratory Limited</t>
         </is>
       </c>
     </row>
@@ -977,12 +985,12 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>ChungDai Gene Bioscience Ltd</t>
+          <t>EPiGenetics Limited</t>
         </is>
       </c>
     </row>
@@ -993,7 +1001,7 @@
       <c r="B41" t="inlineStr"/>
       <c r="C41" t="inlineStr">
         <is>
-          <t>公司名稱</t>
+          <t>Name of Company</t>
         </is>
       </c>
     </row>
@@ -1003,12 +1011,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>32</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>CityU Veterinary Diagnostic Laboratory Company Limited</t>
+          <t>Essence Medical Laboratory Ltd</t>
         </is>
       </c>
     </row>
@@ -1018,12 +1026,12 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>33</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Codex Genetics Limited</t>
+          <t>Ethics Medical Laboratory Ltd</t>
         </is>
       </c>
     </row>
@@ -1031,14 +1039,10 @@
       <c r="A44" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
-      </c>
+      <c r="B44" t="inlineStr"/>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Codex HealthCheck Limited</t>
+          <t>德仁醫學化驗有限公司</t>
         </is>
       </c>
     </row>
@@ -1048,12 +1052,12 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Cordlife (Hong Kong) Limited</t>
+          <t>Eurofins Modern Genomic Services Limited</t>
         </is>
       </c>
     </row>
@@ -1063,12 +1067,12 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>35</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>CytoLab Pap Test Screening Centre Ltd</t>
+          <t>FZ Public Health Laboratory Company Limited</t>
         </is>
       </c>
     </row>
@@ -1078,12 +1082,12 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>36</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>DeNovo Service Limited</t>
+          <t>GemVCare Limited</t>
         </is>
       </c>
     </row>
@@ -1093,12 +1097,12 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>37</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>DiagCor Bioscience Incorporation Limited</t>
+          <t>Geniebiome (Diagnostic) Co. Limited</t>
         </is>
       </c>
     </row>
@@ -1108,12 +1112,12 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Diagnostix Medical Centre (CIGB) O/B Diagnostix Medical Centre Limited</t>
+          <t>Govita Tech Limited</t>
         </is>
       </c>
     </row>
@@ -1123,12 +1127,12 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>39</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Digital Biogene Testing Limited</t>
+          <t>Healthbaby Biotech (Hong Kong) Co. Limited</t>
         </is>
       </c>
     </row>
@@ -1136,10 +1140,14 @@
       <c r="A51" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B51" t="inlineStr"/>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>DB 數字生物基因檢測有限公司</t>
+          <t>Health Gene Limited</t>
         </is>
       </c>
     </row>
@@ -1149,12 +1157,12 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>41</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>DNA Checkup Limited</t>
+          <t>Health Hope International Medical Laboratory Limited</t>
         </is>
       </c>
     </row>
@@ -1162,10 +1170,14 @@
       <c r="A53" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B53" t="inlineStr"/>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>香港基因檢測有限公司</t>
+          <t>Health-Tech Medical Laboratory Limited</t>
         </is>
       </c>
     </row>
@@ -1173,14 +1185,10 @@
       <c r="A54" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
+      <c r="B54" t="inlineStr"/>
       <c r="C54" t="inlineStr">
         <is>
-          <t>DNA Laboratory Limited</t>
+          <t>恆康醫學化驗中心有限公司</t>
         </is>
       </c>
     </row>
@@ -1188,10 +1196,14 @@
       <c r="A55" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B55" t="inlineStr"/>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>迪安亞基因化驗有限公司</t>
+          <t>Hercules Medical Diagnostic &amp; Laboratory Group Limited</t>
         </is>
       </c>
     </row>
@@ -1201,12 +1213,12 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>44</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>DNA Service Center (Hong Kong) Co., Limited</t>
+          <t>Hong Kong Center for Neurodegenerative Diseases Limited</t>
         </is>
       </c>
     </row>
@@ -1216,12 +1228,12 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>45</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>DNA Wecheck Limited</t>
+          <t>HK.DNA Diagnostics Centre Laboratory Limited</t>
         </is>
       </c>
     </row>
@@ -1229,10 +1241,14 @@
       <c r="A58" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B58" t="inlineStr"/>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>天資基因化檢測中心有限公司</t>
+          <t>Hong Kong Genesis Laboratory Centre Limited</t>
         </is>
       </c>
     </row>
@@ -1242,12 +1258,12 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>47</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Essence Medical Laboratory Ltd</t>
+          <t>Hong Kong Health Check and Medical Diagnoslic Centre Limited</t>
         </is>
       </c>
     </row>
@@ -1257,12 +1273,12 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>48</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Ethics Medical Laboratory Ltd</t>
+          <t>Hong Kong Kowloon Laboratory Limited</t>
         </is>
       </c>
     </row>
@@ -1270,14 +1286,10 @@
       <c r="A61" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
+      <c r="B61" t="inlineStr"/>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Exact Medical Laboratory &amp; X-Ray Services O/B Exact Medical Group Ltd</t>
+          <t>香港九龍化驗所有限公司</t>
         </is>
       </c>
     </row>
@@ -1287,12 +1299,12 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>49</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>First Choice (Hong Kong) Medical Laboratory Limited</t>
+          <t>Hong Kong Laboratory Centre Limited</t>
         </is>
       </c>
     </row>
@@ -1303,7 +1315,7 @@
       <c r="B63" t="inlineStr"/>
       <c r="C63" t="inlineStr">
         <is>
-          <t>香港卓信醫療化驗所有限公司</t>
+          <t>香港化驗中心有限公司</t>
         </is>
       </c>
     </row>
@@ -1313,12 +1325,12 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>50</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>FZ Public Health Laboratory Company Limited</t>
+          <t>Hong Kong Molecular Pathology Diagnostic Centre Limited</t>
         </is>
       </c>
     </row>
@@ -1328,12 +1340,12 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>GemVCare Limited</t>
+          <t>Hong Kong Pathology Laboratories</t>
         </is>
       </c>
     </row>
@@ -1343,12 +1355,12 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>52</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Govita Tech Limited</t>
+          <t>Hong Kong Precision Pathology Laboratory Limited</t>
         </is>
       </c>
     </row>
@@ -1356,14 +1368,10 @@
       <c r="A67" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
+      <c r="B67" t="inlineStr"/>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Health Gene Limited</t>
+          <t>香港精準分子病理化驗所有限公司</t>
         </is>
       </c>
     </row>
@@ -1373,12 +1381,12 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>53</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Health Hope International Medical Laboratory Limited</t>
+          <t>Hong Kong Royal Diagnostic Laboratory Limited</t>
         </is>
       </c>
     </row>
@@ -1386,14 +1394,10 @@
       <c r="A69" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>52</t>
-        </is>
-      </c>
+      <c r="B69" t="inlineStr"/>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Health Plus Laboratory Limited</t>
+          <t>香港皇牌基因化驗所有限公司</t>
         </is>
       </c>
     </row>
@@ -1403,12 +1407,12 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>54</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Healthbaby Biotech (Hong Kong) Co. Limited</t>
+          <t>Hong Ning X-Ray &amp; Laboratory Co., Ltd.</t>
         </is>
       </c>
     </row>
@@ -1418,12 +1422,12 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>55</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Health-Tech Medical Laboratory Limited</t>
+          <t>HSK GeneTech Limited</t>
         </is>
       </c>
     </row>
@@ -1433,12 +1437,12 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>56</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Hercules Medical Diagnostic &amp; Laboratory Group Limited</t>
+          <t>International DNA Research Centre Limited</t>
         </is>
       </c>
     </row>
@@ -1446,14 +1450,10 @@
       <c r="A73" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>56</t>
-        </is>
-      </c>
+      <c r="B73" t="inlineStr"/>
       <c r="C73" t="inlineStr">
         <is>
-          <t>HK DNA Diagnostics Centre Laboratory Limited</t>
+          <t>國際基因科研中心有限公司</t>
         </is>
       </c>
     </row>
@@ -1468,7 +1468,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Hong Kong Gene Century Co. Ltd</t>
+          <t>Invitrocue (Hong Kong) Limited</t>
         </is>
       </c>
     </row>
@@ -1483,7 +1483,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Hong Kong Gene &amp; Century</t>
+          <t>Irving Weissman Advanced Medical Testing Centre</t>
         </is>
       </c>
     </row>
@@ -1498,7 +1498,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Hong Kong Genesis Laboratory Centre Limited</t>
+          <t>Keen Well Laboratory and X-Ray Services Ltd</t>
         </is>
       </c>
     </row>
@@ -1513,7 +1513,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Hong Kong Health Check and Medical Diagnostic Centre Limited</t>
+          <t>Kingda Molecular Laboratory Limited</t>
         </is>
       </c>
     </row>
@@ -1521,14 +1521,10 @@
       <c r="A78" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>61</t>
-        </is>
-      </c>
+      <c r="B78" t="inlineStr"/>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Hong Kong Imaging &amp; Diagnostic Centre (Lab) Ltd</t>
+          <t>健達基因檢測中心有限公司</t>
         </is>
       </c>
     </row>
@@ -1538,12 +1534,12 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Hong Kong Laboratory Centre Limited</t>
+          <t>Kingmed Diagnostics (Hong Kong) Limited</t>
         </is>
       </c>
     </row>
@@ -1553,12 +1549,12 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Hong Kong Laboratory Co, Limited</t>
+          <t>LAMY Medical Laboratory Limited</t>
         </is>
       </c>
     </row>
@@ -1569,7 +1565,7 @@
       <c r="B81" t="inlineStr"/>
       <c r="C81" t="inlineStr">
         <is>
-          <t>公司名稱</t>
+          <t>Name of Company</t>
         </is>
       </c>
     </row>
@@ -1579,12 +1575,12 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>63</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Hong Kong Manlix Biomedical Laboratory Centre Limited</t>
+          <t>Lee's Pharm Genomics Lab Limited</t>
         </is>
       </c>
     </row>
@@ -1594,12 +1590,12 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>64</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Hong Kong Medical Laboratory Centre Limited</t>
+          <t>Life Gene Testing Limited</t>
         </is>
       </c>
     </row>
@@ -1607,14 +1603,10 @@
       <c r="A84" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>66</t>
-        </is>
-      </c>
+      <c r="B84" t="inlineStr"/>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Hong Kong Medical Test Centre Limited</t>
+          <t>生命基因檢測有限公司</t>
         </is>
       </c>
     </row>
@@ -1624,12 +1616,12 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>65</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Hong Kong Molecular Bioscience Company Limited</t>
+          <t>LSM Laboratory Limited</t>
         </is>
       </c>
     </row>
@@ -1637,10 +1629,14 @@
       <c r="A86" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B86" t="inlineStr"/>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>香港分子生物科技有限公司</t>
+          <t>MDL Micron Diagnostic Laboratory Limited</t>
         </is>
       </c>
     </row>
@@ -1650,12 +1646,12 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>67</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Hong Kong Molecular Pathology Diagnostic Centre Limited</t>
+          <t>MedDx Allergy Company Limited</t>
         </is>
       </c>
     </row>
@@ -1665,12 +1661,12 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>68</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Hong Kong Precision Pathology Limited</t>
+          <t>Medinet Genetics Limited</t>
         </is>
       </c>
     </row>
@@ -1678,10 +1674,14 @@
       <c r="A89" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B89" t="inlineStr"/>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>香港精準分子病理化驗所有限公司</t>
+          <t>Meditrina Medical Limited</t>
         </is>
       </c>
     </row>
@@ -1696,7 +1696,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Hong Kong Royal Diagnostic Laboratory Limited</t>
+          <t>MedLab X-Ray &amp; Medical Diagnostic Centre Limited</t>
         </is>
       </c>
     </row>
@@ -1704,10 +1704,14 @@
       <c r="A91" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B91" t="inlineStr"/>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>香港皇牌基因檢測有限公司</t>
+          <t>MedPro X-Ray &amp; Medical Diagnostic Centre Limited</t>
         </is>
       </c>
     </row>
@@ -1717,12 +1721,12 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>72</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Hong Kong Union Medical Laboratory Centre Limited</t>
+          <t>Medtec Medisal Laboratory Centre Limited</t>
         </is>
       </c>
     </row>
@@ -1732,12 +1736,12 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>73</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Hong Ning X-Ray &amp; Laboratory Co. Ltd</t>
+          <t>Medtimes Medical Services Limited</t>
         </is>
       </c>
     </row>
@@ -1748,7 +1752,7 @@
       <c r="B94" t="inlineStr"/>
       <c r="C94" t="inlineStr">
         <is>
-          <t>康寧 X 光化驗有限公司</t>
+          <t>時代醫療服務有限公司</t>
         </is>
       </c>
     </row>
@@ -1758,12 +1762,12 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>74</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Hong Kong Kowloon Laboratory Limited</t>
+          <t>Medtimes Molecular Laboratory Limited</t>
         </is>
       </c>
     </row>
@@ -1771,10 +1775,14 @@
       <c r="A96" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B96" t="inlineStr"/>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>香港九龍化驗所有限公司</t>
+          <t>Molecular Informatrix Laboratory Limited</t>
         </is>
       </c>
     </row>
@@ -1784,12 +1792,12 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>76</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Hong's Laboratory Services Limited</t>
+          <t>Modern X-Ray &amp; Medical Laboratory Limited</t>
         </is>
       </c>
     </row>
@@ -1799,12 +1807,12 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>77</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Houston Medical Diagnostic Centre Limited</t>
+          <t>Mononuclear Therapeutics Limited</t>
         </is>
       </c>
     </row>
@@ -1812,10 +1820,14 @@
       <c r="A99" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B99" t="inlineStr"/>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>厚德(坑口)X 光化驗診斷中心有限公司</t>
+          <t>Neo-Lab Medical Laboratory O/B Neo-Health (HK) Limited</t>
         </is>
       </c>
     </row>
@@ -1825,12 +1837,12 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>79</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>HSK GeneTech Limited</t>
+          <t>Neolife Medical Group Limited</t>
         </is>
       </c>
     </row>
@@ -1838,14 +1850,10 @@
       <c r="A101" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>77</t>
-        </is>
-      </c>
+      <c r="B101" t="inlineStr"/>
       <c r="C101" t="inlineStr">
         <is>
-          <t>I-Medical Diagnostic Laboratory</t>
+          <t>香港新生醫療中心</t>
         </is>
       </c>
     </row>
@@ -1853,10 +1861,14 @@
       <c r="A102" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B102" t="inlineStr"/>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>智健醫學化驗中心</t>
+          <t>Neopap Medical Diagnostic Centre Limited</t>
         </is>
       </c>
     </row>
@@ -1866,12 +1878,12 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>81</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>International DNA Research Centre Limited</t>
+          <t>New Clintec Medical Laboratory</t>
         </is>
       </c>
     </row>
@@ -1881,12 +1893,12 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>82</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Invitrocue (Hong Kong) Ltd</t>
+          <t>New Golden Laboratory &amp; X-Ray Services Ltd</t>
         </is>
       </c>
     </row>
@@ -1896,12 +1908,12 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>83</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Irving Weissman Advanced Medical Testing Centre</t>
+          <t>NOVA Diagnostics Limited</t>
         </is>
       </c>
     </row>
@@ -1911,12 +1923,12 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>84</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Keen Care Medical Laboratory And X-Ray Services Limited</t>
+          <t>NovaGene Diagnostic Laboratory Limited</t>
         </is>
       </c>
     </row>
@@ -1924,14 +1936,10 @@
       <c r="A107" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>82</t>
-        </is>
-      </c>
+      <c r="B107" t="inlineStr"/>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Keen Well Medical Laboratory and X-Ray Services Ltd</t>
+          <t>創新基因診斷實驗室有限公司</t>
         </is>
       </c>
     </row>
@@ -1941,12 +1949,12 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>85</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Kingda Molecular Laboratory Limited</t>
+          <t>Onco Medical Laboratory Limited</t>
         </is>
       </c>
     </row>
@@ -1954,10 +1962,14 @@
       <c r="A109" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B109" t="inlineStr"/>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>健達基因檢測中心有限公司</t>
+          <t>OncoSeek Limited</t>
         </is>
       </c>
     </row>
@@ -1965,14 +1977,10 @@
       <c r="A110" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>84</t>
-        </is>
-      </c>
+      <c r="B110" t="inlineStr"/>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Kingmed Diagnostics (Hong Kong) Limited</t>
+          <t>安高生命醫學有限公司</t>
         </is>
       </c>
     </row>
@@ -1982,12 +1990,12 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>87</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>LAMY Medical Laboratory Limited</t>
+          <t>Pangenia Lifesciences Limited</t>
         </is>
       </c>
     </row>
@@ -1995,14 +2003,10 @@
       <c r="A112" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>86</t>
-        </is>
-      </c>
+      <c r="B112" t="inlineStr"/>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Leader Enterprise Limited</t>
+          <t>新亞生命科技有限公司</t>
         </is>
       </c>
     </row>
@@ -2012,12 +2016,12 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>88</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Lee Garden Integrated Diagnostic And Specialist Medical Centre</t>
+          <t>Pathlab Medical Laboratories Ltd</t>
         </is>
       </c>
     </row>
@@ -2027,12 +2031,12 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>89</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Lee's Pharm Genomics Lab Limited</t>
+          <t>Pathology &amp; Clinical Laboratory (HK) PTE Limited</t>
         </is>
       </c>
     </row>
@@ -2042,12 +2046,12 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>90</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Life Gene testing Limited</t>
+          <t>Phase Scientific Medical Laboratory Limited</t>
         </is>
       </c>
     </row>
@@ -2057,12 +2061,12 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>91</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>LSM Laboratory Limited</t>
+          <t>PHC Medical Diagnostic Centre Ltd</t>
         </is>
       </c>
     </row>
@@ -2072,12 +2076,12 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>92</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Lucky Pet Limited</t>
+          <t>PICO Medical Limited</t>
         </is>
       </c>
     </row>
@@ -2087,12 +2091,12 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>93</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>MDL Micron Diagnostic Laboratory Limited</t>
+          <t>Pioneer Health Mangement Company Ltd</t>
         </is>
       </c>
     </row>
@@ -2102,12 +2106,12 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>94</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>MedDx Allergy Company Limited</t>
+          <t>Prenetics Limited</t>
         </is>
       </c>
     </row>
@@ -2117,12 +2121,12 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>95</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Medi Laboratory Limited</t>
+          <t>Primal gene Biotechnology Co., Limited</t>
         </is>
       </c>
     </row>
@@ -2133,7 +2137,7 @@
       <c r="B121" t="inlineStr"/>
       <c r="C121" t="inlineStr">
         <is>
-          <t>公司名稱</t>
+          <t>Name of Company</t>
         </is>
       </c>
     </row>
@@ -2141,14 +2145,10 @@
       <c r="A122" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>95</t>
-        </is>
-      </c>
+      <c r="B122" t="inlineStr"/>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Medinet Genetics Limited</t>
+          <t>元基因生物科技有限公司</t>
         </is>
       </c>
     </row>
@@ -2163,7 +2163,7 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Meditrina Medical Limited</t>
+          <t>Primogenomic Bioscience Ltd</t>
         </is>
       </c>
     </row>
@@ -2178,7 +2178,7 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Medtimes Medical Services Limited</t>
+          <t>ProGene Molecular Diagnostic Center Limited</t>
         </is>
       </c>
     </row>
@@ -2186,14 +2186,10 @@
       <c r="A125" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
+      <c r="B125" t="inlineStr"/>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Medtimes Molecular Laboratory Limited</t>
+          <t>準誠分子診斷中心有限公司</t>
         </is>
       </c>
     </row>
@@ -2203,12 +2199,12 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>98</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>MJ HK Health Screening Center Limited</t>
+          <t>Renle Molecular Laboratory Limited</t>
         </is>
       </c>
     </row>
@@ -2216,14 +2212,10 @@
       <c r="A127" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
+      <c r="B127" t="inlineStr"/>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Modern Genomic Services Limited</t>
+          <t>仁樂基因化驗所有限公司</t>
         </is>
       </c>
     </row>
@@ -2233,12 +2225,12 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>99</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Modern X-Ray &amp; Medical Laboratory Ltd</t>
+          <t>Roxy Biosciences Limited</t>
         </is>
       </c>
     </row>
@@ -2246,14 +2238,10 @@
       <c r="A129" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>102</t>
-        </is>
-      </c>
+      <c r="B129" t="inlineStr"/>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Molecular Informatrix Laboratory Limited</t>
+          <t>樂時生物科技有限公司</t>
         </is>
       </c>
     </row>
@@ -2263,12 +2251,12 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>100</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Mononuclear Therapeutics Limited</t>
+          <t>Sanomics Limited</t>
         </is>
       </c>
     </row>
@@ -2278,12 +2266,12 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>104</t>
+          <t>101</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Neo-Lab Medical Laboratory O/B Neo-Health (HK) Limited</t>
+          <t>Seqnal Technology Services Limited</t>
         </is>
       </c>
     </row>
@@ -2293,12 +2281,12 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>105</t>
+          <t>102</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Neopap Medical Diagnostic Centre Limited</t>
+          <t>Shaukiwan Laboratory and X-Ray Services Ltd</t>
         </is>
       </c>
     </row>
@@ -2308,12 +2296,12 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>103</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>New Clintec Medical Laboratory</t>
+          <t>Stanford Medical Laboratories Limitrd</t>
         </is>
       </c>
     </row>
@@ -2323,12 +2311,12 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>107</t>
+          <t>104</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>New Golden (CH) Medical Laboratory &amp; X-Ray Services Ltd</t>
+          <t>Stemma Genome Center</t>
         </is>
       </c>
     </row>
@@ -2338,12 +2326,12 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>108</t>
+          <t>105</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>New Health X-Ray &amp; Lab Centre Ltd</t>
+          <t>Take2 Diagnostics Limited</t>
         </is>
       </c>
     </row>
@@ -2351,14 +2339,10 @@
       <c r="A136" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>109</t>
-        </is>
-      </c>
+      <c r="B136" t="inlineStr"/>
       <c r="C136" t="inlineStr">
         <is>
-          <t>New Life Laboratory Testing Limited</t>
+          <t>得易診斷有限公司</t>
         </is>
       </c>
     </row>
@@ -2368,12 +2352,12 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>110</t>
+          <t>106</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>NOVA Diagnostics Limited</t>
+          <t>Telotech Limited</t>
         </is>
       </c>
     </row>
@@ -2383,12 +2367,12 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>107</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Novagene Diagnostic Laboratory Limited</t>
+          <t>Tiberias Technology (HK) Limited</t>
         </is>
       </c>
     </row>
@@ -2396,10 +2380,14 @@
       <c r="A139" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B139" t="inlineStr"/>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>創新基因診斷實驗室有限公司</t>
+          <t>Transpac Holding Limited</t>
         </is>
       </c>
     </row>
@@ -2409,12 +2397,12 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>112</t>
+          <t>109</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Onco Medical Laboratory Limited</t>
+          <t>UCN Diagnostic Services</t>
         </is>
       </c>
     </row>
@@ -2424,12 +2412,12 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>113</t>
+          <t>110</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>OncoSeek Limited</t>
+          <t>UNI-LAB Limited</t>
         </is>
       </c>
     </row>
@@ -2439,12 +2427,12 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>114</t>
+          <t>111</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Pangenia Lifesciences Limited</t>
+          <t>Unimed Medical Institute of Laboratory Diagnosis and Pathology Limited</t>
         </is>
       </c>
     </row>
@@ -2454,12 +2442,12 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>115</t>
+          <t>112</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Pathlab Medical Laboratories Ltd</t>
+          <t>Victory Medical Laboratory Ltd</t>
         </is>
       </c>
     </row>
@@ -2469,12 +2457,12 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>113</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Pathology &amp; Clinical Laboratory (HK) PTE Limited</t>
+          <t>Yuen Foong Medical and Imaging Diagnostic Centre Limited</t>
         </is>
       </c>
     </row>
@@ -2484,12 +2472,12 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>117</t>
+          <t>114</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>PHC Medical Diagnostic Centre Ltd</t>
+          <t>Zentrogene Bioscience Laboratory Ltd</t>
         </is>
       </c>
     </row>
@@ -2499,12 +2487,12 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>118</t>
+          <t>115</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>PICO Medical Laboratory</t>
+          <t>中大 X 光醫學化驗所有限公司</t>
         </is>
       </c>
     </row>
@@ -2514,12 +2502,12 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>119</t>
+          <t>116</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Pioneer Health Mangement Company Ltd</t>
+          <t>中港基因檢測中心有限公司</t>
         </is>
       </c>
     </row>
@@ -2529,12 +2517,12 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>117</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Pioneer Medlab Healthcare Services Limited</t>
+          <t>仁健醫學影像診斷有限公司</t>
         </is>
       </c>
     </row>
@@ -2544,12 +2532,12 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>121</t>
+          <t>118</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Prenetics Limited</t>
+          <t>香港環球基因化驗所有限公司</t>
         </is>
       </c>
     </row>
@@ -2559,12 +2547,12 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>122</t>
+          <t>119</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Primal gene Biotechnology Co., Limited</t>
+          <t>亞太基因有限公司</t>
         </is>
       </c>
     </row>
@@ -2574,12 +2562,12 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>120</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Primogenomic Bioscience Ltd</t>
+          <t>理想基因有限公司</t>
         </is>
       </c>
     </row>
@@ -2589,536 +2577,12 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>121</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>ProGene Molecular Diagnostic Center Limited</t>
-        </is>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B153" t="inlineStr"/>
-      <c r="C153" t="inlineStr">
-        <is>
-          <t>準誠分子診斷中心有限公司</t>
-        </is>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B154" t="inlineStr">
-        <is>
-          <t>125</t>
-        </is>
-      </c>
-      <c r="C154" t="inlineStr">
-        <is>
-          <t>Re: Health</t>
-        </is>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>126</t>
-        </is>
-      </c>
-      <c r="C155" t="inlineStr">
-        <is>
-          <t>Renle Molecular Laboratory Limited</t>
-        </is>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B156" t="inlineStr"/>
-      <c r="C156" t="inlineStr">
-        <is>
-          <t>仁樂基因化驗有限公司</t>
-        </is>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B157" t="inlineStr">
-        <is>
-          <t>127</t>
-        </is>
-      </c>
-      <c r="C157" t="inlineStr">
-        <is>
-          <t>Roxy Biosciences Limited</t>
-        </is>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B158" t="inlineStr">
-        <is>
-          <t>128</t>
-        </is>
-      </c>
-      <c r="C158" t="inlineStr">
-        <is>
-          <t>Royal Medical Laboratory Co., Limited</t>
-        </is>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B159" t="inlineStr"/>
-      <c r="C159" t="inlineStr">
-        <is>
-          <t>皇家醫學化驗有限公司</t>
-        </is>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B160" t="inlineStr">
-        <is>
-          <t>129</t>
-        </is>
-      </c>
-      <c r="C160" t="inlineStr">
-        <is>
-          <t>Seqnal Technology Services Limited</t>
-        </is>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B161" t="inlineStr"/>
-      <c r="C161" t="inlineStr">
-        <is>
-          <t>公司名稱</t>
-        </is>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B162" t="inlineStr">
-        <is>
-          <t>130</t>
-        </is>
-      </c>
-      <c r="C162" t="inlineStr">
-        <is>
-          <t>Shaukiwan Medical Laboratory and X-Ray Services Ltd</t>
-        </is>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B163" t="inlineStr">
-        <is>
-          <t>131</t>
-        </is>
-      </c>
-      <c r="C163" t="inlineStr">
-        <is>
-          <t>Stanford Biotech Ltd</t>
-        </is>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B164" t="inlineStr">
-        <is>
-          <t>132</t>
-        </is>
-      </c>
-      <c r="C164" t="inlineStr">
-        <is>
-          <t>Stemma Genome Centre</t>
-        </is>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B165" t="inlineStr">
-        <is>
-          <t>133</t>
-        </is>
-      </c>
-      <c r="C165" t="inlineStr">
-        <is>
-          <t>Sunrise Diagnostic Centre Limited</t>
-        </is>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B166" t="inlineStr">
-        <is>
-          <t>134</t>
-        </is>
-      </c>
-      <c r="C166" t="inlineStr">
-        <is>
-          <t>Take2 Diagnostics Limited</t>
-        </is>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B167" t="inlineStr">
-        <is>
-          <t>135</t>
-        </is>
-      </c>
-      <c r="C167" t="inlineStr">
-        <is>
-          <t>The Giant Medical Laboratory &amp; X-ray Services Ltd</t>
-        </is>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B168" t="inlineStr">
-        <is>
-          <t>136</t>
-        </is>
-      </c>
-      <c r="C168" t="inlineStr">
-        <is>
-          <t>Transpac Holdings Limited</t>
-        </is>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B169" t="inlineStr">
-        <is>
-          <t>137</t>
-        </is>
-      </c>
-      <c r="C169" t="inlineStr">
-        <is>
-          <t>UCN Diagnostic Services</t>
-        </is>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B170" t="inlineStr">
-        <is>
-          <t>138</t>
-        </is>
-      </c>
-      <c r="C170" t="inlineStr">
-        <is>
-          <t>UEP Inspection Company Limited</t>
-        </is>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B171" t="inlineStr">
-        <is>
-          <t>139</t>
-        </is>
-      </c>
-      <c r="C171" t="inlineStr">
-        <is>
-          <t>Uni-Lab Limited</t>
-        </is>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B172" t="inlineStr">
-        <is>
-          <t>140</t>
-        </is>
-      </c>
-      <c r="C172" t="inlineStr">
-        <is>
-          <t>Unimed Medical Institute of Laboratory Diagnosis and Pathology Limited</t>
-        </is>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B173" t="inlineStr">
-        <is>
-          <t>141</t>
-        </is>
-      </c>
-      <c r="C173" t="inlineStr">
-        <is>
-          <t>Victory 'A.R.T.' Laboratory Limited</t>
-        </is>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B174" t="inlineStr">
-        <is>
-          <t>142</t>
-        </is>
-      </c>
-      <c r="C174" t="inlineStr">
-        <is>
-          <t>Victory Medical Laboratory Ltd</t>
-        </is>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B175" t="inlineStr">
-        <is>
-          <t>143</t>
-        </is>
-      </c>
-      <c r="C175" t="inlineStr">
-        <is>
-          <t>Xcelom Limited</t>
-        </is>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B176" t="inlineStr">
-        <is>
-          <t>144</t>
-        </is>
-      </c>
-      <c r="C176" t="inlineStr">
-        <is>
-          <t>Yuen Foong Medical and Imaging Diagnostic Centre Limited</t>
-        </is>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B177" t="inlineStr">
-        <is>
-          <t>145</t>
-        </is>
-      </c>
-      <c r="C177" t="inlineStr">
-        <is>
-          <t>Zentrogene Bioscience Laboratory Limited</t>
-        </is>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B178" t="inlineStr">
-        <is>
-          <t>146</t>
-        </is>
-      </c>
-      <c r="C178" t="inlineStr">
-        <is>
-          <t>中大 X 光醫學化驗所有限公司</t>
-        </is>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B179" t="inlineStr">
-        <is>
-          <t>147</t>
-        </is>
-      </c>
-      <c r="C179" t="inlineStr">
-        <is>
-          <t>中港基因檢測中心有限公司</t>
-        </is>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B180" t="inlineStr">
-        <is>
-          <t>148</t>
-        </is>
-      </c>
-      <c r="C180" t="inlineStr">
-        <is>
-          <t>仁健醫學影像診斷有限公司</t>
-        </is>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B181" t="inlineStr">
-        <is>
-          <t>149</t>
-        </is>
-      </c>
-      <c r="C181" t="inlineStr">
-        <is>
-          <t>亞太基因有限公司</t>
-        </is>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B182" t="inlineStr">
-        <is>
-          <t>150</t>
-        </is>
-      </c>
-      <c r="C182" t="inlineStr">
-        <is>
-          <t>旺角信心 X 光醫學化驗所有限公司</t>
-        </is>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B183" t="inlineStr">
-        <is>
-          <t>151</t>
-        </is>
-      </c>
-      <c r="C183" t="inlineStr">
-        <is>
-          <t>香港新生醫療集團有限公司</t>
-        </is>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B184" t="inlineStr">
-        <is>
-          <t>152</t>
-        </is>
-      </c>
-      <c r="C184" t="inlineStr">
-        <is>
-          <t>理想基因有限公司</t>
-        </is>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B185" t="inlineStr">
-        <is>
-          <t>153</t>
-        </is>
-      </c>
-      <c r="C185" t="inlineStr">
-        <is>
           <t>理想醫學檢驗有限公司</t>
-        </is>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B186" t="inlineStr">
-        <is>
-          <t>154</t>
-        </is>
-      </c>
-      <c r="C186" t="inlineStr">
-        <is>
-          <t>普柏基因檢測中心</t>
-        </is>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B187" t="inlineStr">
-        <is>
-          <t>155</t>
-        </is>
-      </c>
-      <c r="C187" t="inlineStr">
-        <is>
-          <t>詩康富生物科技有限公司</t>
-        </is>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B188" t="inlineStr">
-        <is>
-          <t>156</t>
-        </is>
-      </c>
-      <c r="C188" t="inlineStr">
-        <is>
-          <t>5D DNA (HK) Limited</t>
         </is>
       </c>
     </row>
